--- a/PDS/pds-21_011_076.xlsx
+++ b/PDS/pds-21_011_076.xlsx
@@ -715,7 +715,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF33FFE3"/>
+        <fgColor rgb="FFC4E5F7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
